--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2009.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2009.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.018*"exchange" + 0.017*"foreign" + 0.011*"may" + 0.010*"fund" + 0.009*"resident" + 0.009*"abroad" + 0.009*"issue" + 0.008*"bank" + 0.008*"rate" + 0.008*"currency"</t>
-  </si>
-  <si>
-    <t>0.000*"exchange" + 0.000*"foreign" + 0.000*"fund" + 0.000*"may" + 0.000*"abroad" + 0.000*"resident" + 0.000*"monetary" + 0.000*"bank" + 0.000*"legal" + 0.000*"redistribution"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.000*"may" + 0.000*"fund" + 0.000*"legal" + 0.000*"security" + 0.000*"abroad" + 0.000*"rate" + 0.000*"issue" + 0.000*"investment"</t>
-  </si>
-  <si>
-    <t>0.005*"foreign" + 0.004*"exchange" + 0.003*"may" + 0.003*"currency" + 0.003*"resident" + 0.003*"fund" + 0.002*"rate" + 0.002*"abroad" + 0.002*"import" + 0.002*"locally"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.000*"issue" + 0.000*"abroad" + 0.000*"resident" + 0.000*"fund" + 0.000*"may" + 0.000*"investment" + 0.000*"monetary" + 0.000*"bank"</t>
+    <t>0.056*"fund" + 0.038*"monetary" + 0.035*"export" + 0.027*"exchange" + 0.020*"prior" + 0.017*"open" + 0.016*"arrangement" + 0.014*"law" + 0.014*"approvalno" + 0.013*"rate"</t>
+  </si>
+  <si>
+    <t>0.043*"foreign" + 0.031*"may" + 0.031*"resident" + 0.020*"exchange" + 0.019*"account" + 0.018*"currency" + 0.015*"nonresident" + 0.015*"bank" + 0.013*"must" + 0.013*"require"</t>
+  </si>
+  <si>
+    <t>0.026*"control" + 0.024*"credit" + 0.023*"exchange" + 0.023*"capital" + 0.022*"rate" + 0.021*"limit" + 0.020*"market" + 0.016*"financial" + 0.016*"foreign" + 0.014*"regulation"</t>
+  </si>
+  <si>
+    <t>0.055*"issue" + 0.053*"purchase" + 0.052*"import" + 0.043*"abroad" + 0.040*"locally" + 0.039*"sale" + 0.025*"security" + 0.020*"fide" + 0.019*"indicative" + 0.019*"limitsbona"</t>
+  </si>
+  <si>
+    <t>0.049*"investment" + 0.036*"legal" + 0.033*"instrument" + 0.028*"reference" + 0.022*"country" + 0.019*"effective" + 0.018*"quantitative" + 0.015*"limitsno" + 0.015*"portfolioheld" + 0.012*"andhyperlinksn"</t>
   </si>
 </sst>
 </file>
